--- a/blenderSalmonScaling.xlsx
+++ b/blenderSalmonScaling.xlsx
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,13 +128,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -149,35 +150,35 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.0108</v>
+        <v>0.01</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.4397</v>
+        <v>0.4391</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.0111</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>0.0305</v>
+        <v>0.03</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3.4963</v>
+        <v>4.0073</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.2488</v>
+        <v>0.3599</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>0.0501</v>
+        <v>0.05</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>9.4609</v>
+        <v>11.0702</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.1074</v>
+        <v>1.6488</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,32 +186,32 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>37.8726</v>
+        <v>44.2809</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>8.8693</v>
+        <v>13.1905</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>341.4651</v>
+        <v>399.0777</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>240.1155</v>
+        <v>357.0876</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>946.2981</v>
+        <v>1107.9382</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1107.7527</v>
+        <v>1651.4366</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -218,10 +219,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3780.511</v>
+        <v>4431.7527</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8845.5862</v>
+        <v>13211.4928</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -229,10 +230,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>94607.5905</v>
+        <v>110784.647</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1107362.5951</v>
+        <v>1651174.5535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,10 +241,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>378372.2625</v>
+        <v>443138.5881</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>8856860.763</v>
+        <v>13209396.4279</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,10 +252,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2364826.6699</v>
+        <v>2769570.2142</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>138388449.331</v>
+        <v>206390253.4039</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,10 +263,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>6053956.2002</v>
+        <v>7090070.8371</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>566839088.8311</v>
+        <v>845367866.4357</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,10 +274,10 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>9459306.6795</v>
+        <v>11078280.8568</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1107107594.6482</v>
+        <v>1651122027.2313</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,10 +285,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>13621401.4739</v>
+        <v>15952658.3803</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1913081926.3126</v>
+        <v>2853116190.3237</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,10 +296,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>21283440.1244</v>
+        <v>24925994.6674</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3736488134.2667</v>
+        <v>5572478059.5088</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,10 +307,10 @@
         <v>100</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>37837336.2541</v>
+        <v>44312941.3205</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>8856887128.4132</v>
+        <v>13208872314.2468</v>
       </c>
     </row>
   </sheetData>
